--- a/Lab/Gailius/gailiausImpedansas.xlsx
+++ b/Lab/Gailius/gailiausImpedansas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\sem11-InovatyviosMatavimoSistemos\Lab\Gailius\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A79C76-2893-4107-B0DF-84C3E84CD6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC249FD5-B062-40EF-9561-075170FDE271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4A8A64EE-8ADA-4AD2-BA74-7B5AC386A841}"/>
+    <workbookView xWindow="5760" yWindow="1908" windowWidth="17280" windowHeight="9060" xr2:uid="{4A8A64EE-8ADA-4AD2-BA74-7B5AC386A841}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,21 +25,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Freq</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
   <si>
     <t>Rc</t>
   </si>
   <si>
     <t>Xc</t>
   </si>
+  <si>
+    <t>Faziu skirtumas</t>
+  </si>
+  <si>
+    <t>Dažnis</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -69,8 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -88,6 +98,2423 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="lt-LT"/>
+              <a:t>Dažnių atsakas</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Rc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$W$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$W$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>839.33822459436101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>822.00703796077198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>706.36526947044695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>463.08522596737498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>351.149462206294</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>304.420382910721</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>235.37133362954501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200.00623489909901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>167.203677118407</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>138.83798070344801</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>140.14152674867</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98.960964375328601</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>99.559942080464396</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78.566765999442495</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>78.776643207101799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>69.378625791756903</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60.422722366095101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60.558720021373396</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38.529958301405301</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>46.656930015690698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E0E8-4845-8BAC-56B9BF43C07E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Xc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$W$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$6:$W$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>341.94693205709399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>198.027446528703</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>232.07861722563399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.2906534674723</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.164981004861801</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.4152606526931</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.868459795149199</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.838195819931199</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.3826127381058</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E0E8-4845-8BAC-56B9BF43C07E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2024104032"/>
+        <c:axId val="2019069072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2024104032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="210"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>f, Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2019069072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2019069072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lt-LT"/>
+                  <a:t>R</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>, ohm'</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2024104032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="lt-LT"/>
+              <a:t>Kondensatoriaus talpa</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$W$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$8:$W$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>88.419412828830744</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>122.42687930145796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>155.14585078494156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200.92535893607393</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137.15605943753104</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>176.83882565766149</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>227.36420441699337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>248.67959858108645</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>294.73137609610245</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>318.3098861837907</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>328.83252704937053</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>378.94034069498889</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>408.08959767152652</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>416.5605720800869</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>439.07874528537707</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>487.24256390678346</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>523.94305851338049</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>558.26695056744677</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>582.4098934411146</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>589.4627521922049</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-760A-4FD1-A62B-C7969DE96747}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2074071792"/>
+        <c:axId val="2022327168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2074071792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lt-LT"/>
+                  <a:t>f, Hz</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2022327168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2022327168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lt-LT"/>
+                  <a:t>C, nF</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2074071792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -99,9 +2526,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>558464</xdr:colOff>
+      <xdr:colOff>341294</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>59338</xdr:rowOff>
+      <xdr:rowOff>55528</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -131,6 +2558,78 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295109</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>174846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>334617</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19961</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBECE45A-8154-09CC-BF93-D778A2313631}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>368617</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>60007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>283845</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33451CB4-08EF-6601-C3B5-2970A6CB08A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -433,17 +2932,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08579969-95D5-4EEC-9A13-5B3A3A2DE2D7}">
-  <dimension ref="C4:W6"/>
+  <dimension ref="C4:W48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -508,7 +3010,7 @@
     </row>
     <row r="5" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>839.33822459436101</v>
@@ -573,66 +3075,496 @@
     </row>
     <row r="6" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1800</v>
+      </c>
+      <c r="E6">
+        <v>650</v>
+      </c>
+      <c r="F6">
+        <v>341.94693205709399</v>
+      </c>
+      <c r="G6">
+        <v>198.027446528703</v>
+      </c>
+      <c r="H6">
+        <v>232.07861722563399</v>
+      </c>
+      <c r="I6">
+        <v>150</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>80</v>
+      </c>
+      <c r="L6">
+        <v>60</v>
+      </c>
+      <c r="M6">
+        <v>50</v>
+      </c>
+      <c r="N6">
+        <v>44</v>
+      </c>
+      <c r="O6">
+        <v>35</v>
+      </c>
+      <c r="P6">
+        <v>30</v>
+      </c>
+      <c r="Q6">
+        <v>27.2906534674723</v>
+      </c>
+      <c r="R6">
+        <v>24.164981004861801</v>
+      </c>
+      <c r="S6">
+        <v>20.4152606526931</v>
+      </c>
+      <c r="T6">
+        <v>17.868459795149199</v>
+      </c>
+      <c r="U6">
+        <v>15.838195819931199</v>
+      </c>
+      <c r="V6">
+        <v>14.3826127381058</v>
+      </c>
+      <c r="W6">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>-65.3</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>-32.6</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>-20.5</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>-14.8</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>-22.5</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>-17.407800000000002</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>-14.837400000000001</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>-11.897399999999999</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>-10.2294</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>-8.8805999999999994</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <v>-7.431</v>
       </c>
-      <c r="O6">
+      <c r="O7">
         <v>-6.7542</v>
       </c>
-      <c r="P6">
+      <c r="P7">
         <v>-5.7750000000000004</v>
       </c>
-      <c r="Q6">
+      <c r="Q7">
         <v>-5.1509999999999998</v>
       </c>
-      <c r="R6">
+      <c r="R7">
         <v>-4.6829999999999998</v>
       </c>
-      <c r="S6">
+      <c r="S7">
         <v>-4.0613999999999999</v>
       </c>
-      <c r="T6">
+      <c r="T7">
         <v>-3.8022</v>
       </c>
-      <c r="U6">
+      <c r="U7">
         <v>-3.3582000000000001</v>
       </c>
-      <c r="V6">
+      <c r="V7">
         <v>-3.0581999999999998</v>
       </c>
-      <c r="W6">
+      <c r="W7">
+        <v>-2.859</v>
+      </c>
+    </row>
+    <row r="8" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <f>1/(2*PI()*D4*D6)*10000000</f>
+        <v>88.419412828830744</v>
+      </c>
+      <c r="E8">
+        <f>1/(2*PI()*E4*E6)*10000000</f>
+        <v>122.42687930145796</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:W8" si="0">1/(2*PI()*F4*F6)*10000000</f>
+        <v>155.14585078494156</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>200.92535893607393</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>137.15605943753104</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>176.83882565766149</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>227.36420441699337</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>248.67959858108645</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>294.73137609610245</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>318.3098861837907</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>328.83252704937053</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>378.94034069498889</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>408.08959767152652</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>416.5605720800869</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>439.07874528537707</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>487.24256390678346</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>523.94305851338049</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>558.26695056744677</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>582.4098934411146</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>589.4627521922049</v>
+      </c>
+    </row>
+    <row r="41" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1">
+        <v>10</v>
+      </c>
+      <c r="F41" s="1">
+        <v>20</v>
+      </c>
+      <c r="G41" s="1">
+        <v>30</v>
+      </c>
+      <c r="H41" s="1">
+        <v>40</v>
+      </c>
+      <c r="I41" s="1">
+        <v>50</v>
+      </c>
+      <c r="J41" s="1">
+        <v>60</v>
+      </c>
+      <c r="K41" s="1">
+        <v>70</v>
+      </c>
+      <c r="L41" s="1">
+        <v>80</v>
+      </c>
+      <c r="M41" s="1">
+        <v>90</v>
+      </c>
+      <c r="N41" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>839.33822459436101</v>
+      </c>
+      <c r="F42" s="1">
+        <v>822.00703796077198</v>
+      </c>
+      <c r="G42" s="1">
+        <v>706.36526947044695</v>
+      </c>
+      <c r="H42" s="1">
+        <v>463.08522596737498</v>
+      </c>
+      <c r="I42" s="1">
+        <v>351.149462206294</v>
+      </c>
+      <c r="J42" s="1">
+        <v>304.420382910721</v>
+      </c>
+      <c r="K42" s="1">
+        <v>235.37133362954501</v>
+      </c>
+      <c r="L42" s="1">
+        <v>200.00623489909901</v>
+      </c>
+      <c r="M42" s="1">
+        <v>167.203677118407</v>
+      </c>
+      <c r="N42" s="1">
+        <v>138.83798070344801</v>
+      </c>
+    </row>
+    <row r="43" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2248.5592924810999</v>
+      </c>
+      <c r="F43" s="1">
+        <v>750.368880956525</v>
+      </c>
+      <c r="G43" s="1">
+        <v>341.94693205709399</v>
+      </c>
+      <c r="H43" s="1">
+        <v>198.027446528703</v>
+      </c>
+      <c r="I43" s="1">
+        <v>232.07861722563399</v>
+      </c>
+      <c r="J43" s="1">
+        <v>164.858570405488</v>
+      </c>
+      <c r="K43" s="1">
+        <v>119.18075719679899</v>
+      </c>
+      <c r="L43" s="1">
+        <v>86.406565977584904</v>
+      </c>
+      <c r="M43" s="1">
+        <v>69.208606252544897</v>
+      </c>
+      <c r="N43" s="1">
+        <v>56.341310856776197</v>
+      </c>
+    </row>
+    <row r="44" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>-65.3</v>
+      </c>
+      <c r="F44" s="1">
+        <v>-32.6</v>
+      </c>
+      <c r="G44" s="1">
+        <v>-20.5</v>
+      </c>
+      <c r="H44" s="1">
+        <v>-14.8</v>
+      </c>
+      <c r="I44" s="1">
+        <v>-22.5</v>
+      </c>
+      <c r="J44" s="1">
+        <v>-17.407800000000002</v>
+      </c>
+      <c r="K44" s="1">
+        <v>-14.837400000000001</v>
+      </c>
+      <c r="L44" s="1">
+        <v>-11.897399999999999</v>
+      </c>
+      <c r="M44" s="1">
+        <v>-10.2294</v>
+      </c>
+      <c r="N44" s="1">
+        <v>-8.8805999999999994</v>
+      </c>
+    </row>
+    <row r="45" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1">
+        <v>110</v>
+      </c>
+      <c r="F45" s="1">
+        <v>120</v>
+      </c>
+      <c r="G45" s="1">
+        <v>130</v>
+      </c>
+      <c r="H45" s="1">
+        <v>140</v>
+      </c>
+      <c r="I45" s="1">
+        <v>150</v>
+      </c>
+      <c r="J45" s="1">
+        <v>160</v>
+      </c>
+      <c r="K45" s="1">
+        <v>170</v>
+      </c>
+      <c r="L45" s="1">
+        <v>180</v>
+      </c>
+      <c r="M45" s="1">
+        <v>190</v>
+      </c>
+      <c r="N45" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>140.14152674867</v>
+      </c>
+      <c r="F46" s="1">
+        <v>98.960964375328601</v>
+      </c>
+      <c r="G46" s="1">
+        <v>99.559942080464396</v>
+      </c>
+      <c r="H46" s="1">
+        <v>78.566765999442495</v>
+      </c>
+      <c r="I46" s="1">
+        <v>78.776643207101799</v>
+      </c>
+      <c r="J46" s="1">
+        <v>69.378625791756903</v>
+      </c>
+      <c r="K46" s="1">
+        <v>60.422722366095101</v>
+      </c>
+      <c r="L46" s="1">
+        <v>60.558720021373396</v>
+      </c>
+      <c r="M46" s="1">
+        <v>38.529958301405301</v>
+      </c>
+      <c r="N46" s="1">
+        <v>46.656930015690698</v>
+      </c>
+    </row>
+    <row r="47" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
+        <v>44.4581607634845</v>
+      </c>
+      <c r="F47" s="1">
+        <v>38.858755529742297</v>
+      </c>
+      <c r="G47" s="1">
+        <v>31.434116518570601</v>
+      </c>
+      <c r="H47" s="1">
+        <v>27.2906534674723</v>
+      </c>
+      <c r="I47" s="1">
+        <v>24.164981004861801</v>
+      </c>
+      <c r="J47" s="1">
+        <v>20.4152606526931</v>
+      </c>
+      <c r="K47" s="1">
+        <v>17.868459795149199</v>
+      </c>
+      <c r="L47" s="1">
+        <v>15.838195819931199</v>
+      </c>
+      <c r="M47" s="1">
+        <v>14.3826127381058</v>
+      </c>
+      <c r="N47" s="1">
+        <v>12.816321313214701</v>
+      </c>
+    </row>
+    <row r="48" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="1">
+        <v>-7.431</v>
+      </c>
+      <c r="F48" s="1">
+        <v>-6.7542</v>
+      </c>
+      <c r="G48" s="1">
+        <v>-5.7750000000000004</v>
+      </c>
+      <c r="H48" s="1">
+        <v>-5.1509999999999998</v>
+      </c>
+      <c r="I48" s="1">
+        <v>-4.6829999999999998</v>
+      </c>
+      <c r="J48" s="1">
+        <v>-4.0613999999999999</v>
+      </c>
+      <c r="K48" s="1">
+        <v>-3.8022</v>
+      </c>
+      <c r="L48" s="1">
+        <v>-3.3582000000000001</v>
+      </c>
+      <c r="M48" s="1">
+        <v>-3.0581999999999998</v>
+      </c>
+      <c r="N48" s="1">
         <v>-2.859</v>
       </c>
     </row>
